--- a/Shareskill.xlsx
+++ b/Shareskill.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mogli\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mogli\Desktop\marsframework-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A393FF-7D72-46B1-8136-CD6667573C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E73919-1674-4039-B518-AEEBDBC6A478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{61D9AB2A-179B-43A8-9F16-A20ACC2F0D68}"/>
   </bookViews>
   <sheets>
-    <sheet name="Shareskill_TestCondition" sheetId="1" r:id="rId1"/>
-    <sheet name="Shareskill_TestCases" sheetId="2" r:id="rId2"/>
+    <sheet name="Shareskill_TestCases" sheetId="2" r:id="rId1"/>
+    <sheet name="Shareskill_TestCondition" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="155">
   <si>
     <t>ID</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Validate "Title" on Share Skill Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if the user is able to "Add" the title </t>
   </si>
   <si>
     <t>Validate "Description" on Share Skill Page</t>
@@ -921,261 +918,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D378625-DEC7-43F9-BC95-5CA378DA2E36}">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CDA986-F0ED-4DD6-9445-08AB76010723}">
   <dimension ref="A1:AA88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,31 +941,31 @@
   <sheetData>
     <row r="1" spans="1:27" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -1241,19 +988,19 @@
     </row>
     <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1262,17 +1009,14 @@
     </row>
     <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1283,13 +1027,13 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1298,19 +1042,19 @@
     </row>
     <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1320,16 +1064,16 @@
     <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1340,13 +1084,13 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1355,19 +1099,19 @@
     </row>
     <row r="8" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1377,16 +1121,16 @@
     <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1397,13 +1141,13 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1412,19 +1156,19 @@
     </row>
     <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1435,13 +1179,13 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1452,13 +1196,13 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1467,19 +1211,19 @@
     </row>
     <row r="14" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1489,16 +1233,16 @@
     <row r="15" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1509,13 +1253,13 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1524,19 +1268,19 @@
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1546,16 +1290,16 @@
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1566,13 +1310,13 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1581,19 +1325,19 @@
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1604,13 +1348,13 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1621,13 +1365,13 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1636,19 +1380,19 @@
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1659,13 +1403,13 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1676,13 +1420,13 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1691,19 +1435,19 @@
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1714,13 +1458,13 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1731,13 +1475,13 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1746,19 +1490,19 @@
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1769,13 +1513,13 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1786,13 +1530,13 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1801,19 +1545,19 @@
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1824,13 +1568,13 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1841,13 +1585,13 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1856,19 +1600,19 @@
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1879,13 +1623,13 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1896,13 +1640,13 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1911,19 +1655,19 @@
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1934,13 +1678,13 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1951,13 +1695,13 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1966,19 +1710,19 @@
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -1989,13 +1733,13 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2006,13 +1750,13 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2021,19 +1765,19 @@
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2044,13 +1788,13 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2061,13 +1805,13 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2076,19 +1820,19 @@
     </row>
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2099,13 +1843,13 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2116,13 +1860,13 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2131,19 +1875,19 @@
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2154,13 +1898,13 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2171,13 +1915,13 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2186,19 +1930,19 @@
     </row>
     <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2209,13 +1953,13 @@
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -2226,13 +1970,13 @@
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D55" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -2241,19 +1985,19 @@
     </row>
     <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2264,13 +2008,13 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -2281,13 +2025,13 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2296,19 +2040,19 @@
     </row>
     <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -2319,13 +2063,13 @@
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -2336,13 +2080,13 @@
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="E61" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -2351,19 +2095,19 @@
     </row>
     <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -2374,13 +2118,13 @@
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -2391,13 +2135,13 @@
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -2406,19 +2150,19 @@
     </row>
     <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -2429,13 +2173,13 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -2446,13 +2190,13 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D67" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -2461,19 +2205,19 @@
     </row>
     <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -2484,13 +2228,13 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -2501,13 +2245,13 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D70" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -2516,243 +2260,493 @@
     </row>
     <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C72" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C75" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C76" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D79" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C84" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C85" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D85" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C87" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C88" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D88" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>155</v>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D378625-DEC7-43F9-BC95-5CA378DA2E36}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
